--- a/spreadsheets/new/GSE73727.0.xlsx
+++ b/spreadsheets/new/GSE73727.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1EFAE3-7C28-794A-A240-435849E4D9D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="29420" windowHeight="15560" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_suspension" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="Sequencing_protocol" sheetId="8" r:id="rId8"/>
     <sheet name="Specimen_from_organism" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="1215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="1216">
   <si>
     <t>CELL_SUSPENSION.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -3667,13 +3673,16 @@
   </si>
   <si>
     <t>pancreas</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3710,6 +3719,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3756,7 +3773,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3788,9 +3805,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3822,6 +3857,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3997,75 +4050,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="202.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="202.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4244,7 +4295,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -4423,7 +4474,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -4581,7 +4632,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -4760,12 +4811,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -4788,7 +4839,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -4814,7 +4865,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>218</v>
       </c>
@@ -4840,7 +4891,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>222</v>
       </c>
@@ -4866,7 +4917,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>226</v>
       </c>
@@ -4892,7 +4943,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>230</v>
       </c>
@@ -4918,7 +4969,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>233</v>
       </c>
@@ -4944,7 +4995,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>237</v>
       </c>
@@ -4970,7 +5021,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>240</v>
       </c>
@@ -4993,7 +5044,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>243</v>
       </c>
@@ -5019,7 +5070,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>246</v>
       </c>
@@ -5045,7 +5096,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>250</v>
       </c>
@@ -5071,7 +5122,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>253</v>
       </c>
@@ -5097,7 +5148,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>256</v>
       </c>
@@ -5123,7 +5174,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>259</v>
       </c>
@@ -5149,7 +5200,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>262</v>
       </c>
@@ -5175,7 +5226,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>265</v>
       </c>
@@ -5198,7 +5249,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>268</v>
       </c>
@@ -5224,7 +5275,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>271</v>
       </c>
@@ -5250,7 +5301,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>274</v>
       </c>
@@ -5276,7 +5327,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>277</v>
       </c>
@@ -5302,7 +5353,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>280</v>
       </c>
@@ -5328,7 +5379,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>283</v>
       </c>
@@ -5351,7 +5402,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>286</v>
       </c>
@@ -5377,7 +5428,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>289</v>
       </c>
@@ -5403,7 +5454,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>292</v>
       </c>
@@ -5429,7 +5480,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>295</v>
       </c>
@@ -5455,7 +5506,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>298</v>
       </c>
@@ -5481,7 +5532,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>301</v>
       </c>
@@ -5507,7 +5558,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>304</v>
       </c>
@@ -5533,7 +5584,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>307</v>
       </c>
@@ -5556,7 +5607,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>310</v>
       </c>
@@ -5582,7 +5633,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>313</v>
       </c>
@@ -5608,7 +5659,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>316</v>
       </c>
@@ -5634,7 +5685,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>319</v>
       </c>
@@ -5660,7 +5711,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>322</v>
       </c>
@@ -5686,7 +5737,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>325</v>
       </c>
@@ -5712,7 +5763,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>328</v>
       </c>
@@ -5738,7 +5789,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>331</v>
       </c>
@@ -5764,7 +5815,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>334</v>
       </c>
@@ -5790,7 +5841,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>337</v>
       </c>
@@ -5816,7 +5867,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>340</v>
       </c>
@@ -5842,7 +5893,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>343</v>
       </c>
@@ -5868,7 +5919,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>346</v>
       </c>
@@ -5894,7 +5945,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>349</v>
       </c>
@@ -5920,7 +5971,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>352</v>
       </c>
@@ -5943,7 +5994,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>355</v>
       </c>
@@ -5966,7 +6017,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>358</v>
       </c>
@@ -5992,7 +6043,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>361</v>
       </c>
@@ -6015,7 +6066,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>364</v>
       </c>
@@ -6041,7 +6092,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>367</v>
       </c>
@@ -6064,7 +6115,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>370</v>
       </c>
@@ -6090,7 +6141,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>373</v>
       </c>
@@ -6116,7 +6167,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>376</v>
       </c>
@@ -6142,7 +6193,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>379</v>
       </c>
@@ -6168,7 +6219,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>382</v>
       </c>
@@ -6194,7 +6245,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>385</v>
       </c>
@@ -6220,7 +6271,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>388</v>
       </c>
@@ -6246,7 +6297,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>391</v>
       </c>
@@ -6272,7 +6323,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="65" spans="1:41">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>394</v>
       </c>
@@ -6295,7 +6346,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="66" spans="1:41">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>397</v>
       </c>
@@ -6321,7 +6372,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="1:41">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>400</v>
       </c>
@@ -6347,7 +6398,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="1:41">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>403</v>
       </c>
@@ -6373,7 +6424,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="1:41">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>406</v>
       </c>
@@ -6399,7 +6450,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:41">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>409</v>
       </c>
@@ -6425,7 +6476,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:41">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>412</v>
       </c>
@@ -6451,7 +6502,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:41">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>415</v>
       </c>
@@ -6477,7 +6528,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="1:41">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>418</v>
       </c>
@@ -6503,7 +6554,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="74" spans="1:41">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>421</v>
       </c>
@@ -6529,7 +6580,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:41">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>424</v>
       </c>
@@ -6555,7 +6606,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="76" spans="1:41">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>427</v>
       </c>
@@ -6581,7 +6632,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="77" spans="1:41">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>433</v>
       </c>
@@ -6613,93 +6664,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>437</v>
       </c>
@@ -6932,7 +6981,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -7165,7 +7214,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -7380,7 +7429,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>541</v>
       </c>
@@ -7613,12 +7662,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>602</v>
       </c>
@@ -7635,67 +7684,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="264.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="264.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>604</v>
       </c>
@@ -7850,7 +7897,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -8005,7 +8052,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -8154,7 +8201,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>705</v>
       </c>
@@ -8309,12 +8356,12 @@
         <v>755</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>756</v>
       </c>
@@ -8331,25 +8378,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="322.7109375" customWidth="1"/>
-    <col min="4" max="4" width="135.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="322.6640625" customWidth="1"/>
+    <col min="4" max="4" width="135.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>759</v>
       </c>
@@ -8378,7 +8424,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>768</v>
       </c>
@@ -8407,7 +8453,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>777</v>
       </c>
@@ -8436,7 +8482,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>786</v>
       </c>
@@ -8465,12 +8511,12 @@
         <v>794</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>795</v>
       </c>
@@ -8496,28 +8542,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="80.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="80.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>801</v>
       </c>
@@ -8555,7 +8601,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>813</v>
       </c>
@@ -8593,7 +8639,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>823</v>
       </c>
@@ -8631,7 +8677,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>834</v>
       </c>
@@ -8669,12 +8715,12 @@
         <v>845</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>846</v>
       </c>
@@ -8697,21 +8743,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>851</v>
       </c>
@@ -8728,7 +8774,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>855</v>
       </c>
@@ -8745,7 +8791,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>860</v>
       </c>
@@ -8762,7 +8808,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>865</v>
       </c>
@@ -8779,12 +8825,12 @@
         <v>869</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>870</v>
       </c>
@@ -8795,46 +8841,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>871</v>
       </c>
@@ -8926,7 +8970,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>883</v>
       </c>
@@ -9018,7 +9062,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>892</v>
       </c>
@@ -9098,7 +9142,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>902</v>
       </c>
@@ -9190,12 +9234,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>914</v>
       </c>
@@ -9218,7 +9262,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>919</v>
       </c>
@@ -9241,7 +9285,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>921</v>
       </c>
@@ -9264,7 +9308,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>923</v>
       </c>
@@ -9287,7 +9331,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>925</v>
       </c>
@@ -9310,7 +9354,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>927</v>
       </c>
@@ -9333,7 +9377,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>929</v>
       </c>
@@ -9356,7 +9400,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>931</v>
       </c>
@@ -9379,7 +9423,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>933</v>
       </c>
@@ -9402,7 +9446,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>935</v>
       </c>
@@ -9425,7 +9469,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>937</v>
       </c>
@@ -9448,7 +9492,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>939</v>
       </c>
@@ -9471,7 +9515,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>941</v>
       </c>
@@ -9494,7 +9538,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>943</v>
       </c>
@@ -9517,7 +9561,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>945</v>
       </c>
@@ -9540,7 +9584,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>947</v>
       </c>
@@ -9563,7 +9607,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>949</v>
       </c>
@@ -9586,7 +9630,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>951</v>
       </c>
@@ -9609,7 +9653,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>953</v>
       </c>
@@ -9632,7 +9676,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>955</v>
       </c>
@@ -9655,7 +9699,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>957</v>
       </c>
@@ -9678,7 +9722,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>959</v>
       </c>
@@ -9701,7 +9745,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>961</v>
       </c>
@@ -9724,7 +9768,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>963</v>
       </c>
@@ -9747,7 +9791,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>965</v>
       </c>
@@ -9770,7 +9814,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>967</v>
       </c>
@@ -9793,7 +9837,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>969</v>
       </c>
@@ -9816,7 +9860,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>971</v>
       </c>
@@ -9839,7 +9883,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>973</v>
       </c>
@@ -9862,7 +9906,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>975</v>
       </c>
@@ -9885,7 +9929,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>977</v>
       </c>
@@ -9908,7 +9952,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>979</v>
       </c>
@@ -9931,7 +9975,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>981</v>
       </c>
@@ -9954,7 +9998,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>983</v>
       </c>
@@ -9977,7 +10021,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>985</v>
       </c>
@@ -10000,7 +10044,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>987</v>
       </c>
@@ -10023,7 +10067,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>989</v>
       </c>
@@ -10046,7 +10090,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>991</v>
       </c>
@@ -10069,7 +10113,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>993</v>
       </c>
@@ -10092,7 +10136,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>995</v>
       </c>
@@ -10115,7 +10159,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>997</v>
       </c>
@@ -10138,7 +10182,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>999</v>
       </c>
@@ -10161,7 +10205,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1001</v>
       </c>
@@ -10184,7 +10228,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1003</v>
       </c>
@@ -10207,7 +10251,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1005</v>
       </c>
@@ -10230,7 +10274,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1007</v>
       </c>
@@ -10253,7 +10297,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1009</v>
       </c>
@@ -10276,7 +10320,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1011</v>
       </c>
@@ -10299,7 +10343,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1013</v>
       </c>
@@ -10322,7 +10366,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1015</v>
       </c>
@@ -10345,7 +10389,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1017</v>
       </c>
@@ -10368,7 +10412,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1019</v>
       </c>
@@ -10391,7 +10435,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1021</v>
       </c>
@@ -10414,7 +10458,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1023</v>
       </c>
@@ -10437,7 +10481,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1025</v>
       </c>
@@ -10460,7 +10504,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1027</v>
       </c>
@@ -10483,7 +10527,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1029</v>
       </c>
@@ -10506,7 +10550,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1031</v>
       </c>
@@ -10529,7 +10573,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1033</v>
       </c>
@@ -10552,7 +10596,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1035</v>
       </c>
@@ -10575,7 +10619,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1037</v>
       </c>
@@ -10598,7 +10642,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1039</v>
       </c>
@@ -10621,7 +10665,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1041</v>
       </c>
@@ -10644,7 +10688,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1043</v>
       </c>
@@ -10667,7 +10711,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1045</v>
       </c>
@@ -10690,7 +10734,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1047</v>
       </c>
@@ -10713,7 +10757,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1049</v>
       </c>
@@ -10736,7 +10780,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1051</v>
       </c>
@@ -10759,7 +10803,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1053</v>
       </c>
@@ -10782,7 +10826,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1055</v>
       </c>
@@ -10805,7 +10849,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1057</v>
       </c>
@@ -10828,7 +10872,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1059</v>
       </c>
@@ -10857,34 +10901,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="264.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="264.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>882</v>
       </c>
@@ -10940,7 +10986,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -10996,7 +11042,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -11046,7 +11092,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>913</v>
       </c>
@@ -11102,12 +11148,12 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>918</v>
       </c>
@@ -11116,6 +11162,9 @@
       </c>
       <c r="G6" t="s">
         <v>1107</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1215</v>
       </c>
     </row>
   </sheetData>
@@ -11124,76 +11173,73 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BH8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -11375,7 +11421,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -11557,7 +11603,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -11718,7 +11764,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -11900,12 +11946,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>213</v>
       </c>
@@ -11922,7 +11968,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>432</v>
       </c>
@@ -11939,7 +11985,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>436</v>
       </c>
